--- a/annotation/vp2_test_selina.xlsx
+++ b/annotation/vp2_test_selina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E52346-4B91-4FED-AC69-8E1694BEC664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5CC81E-E486-154F-9EB6-82A7AEB7F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp2_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>utterance</t>
   </si>
@@ -224,13 +224,70 @@
   </si>
   <si>
     <t>info_need</t>
+  </si>
+  <si>
+    <t>Recipe Retrieval</t>
+  </si>
+  <si>
+    <t>Recipe Summary</t>
+  </si>
+  <si>
+    <t>Ingredients in Recipe</t>
+  </si>
+  <si>
+    <t>Recipe Selection</t>
+  </si>
+  <si>
+    <t>Preparation Steps</t>
+  </si>
+  <si>
+    <t>Omit preparation steps</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Preparation Order</t>
+  </si>
+  <si>
+    <t>Amount of Ingredients</t>
+  </si>
+  <si>
+    <t>Change Amount</t>
+  </si>
+  <si>
+    <t>Temperature Explicit</t>
+  </si>
+  <si>
+    <t>Temperature Reassurance</t>
+  </si>
+  <si>
+    <t>Preparation of Ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient - Proper Usage</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>Cooking Time Reassurance</t>
+  </si>
+  <si>
+    <t>Cooking Technique - Ingredient</t>
+  </si>
+  <si>
+    <t>Cooking Technique - Reassurance</t>
+  </si>
+  <si>
+    <t>Knowledge Taste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +302,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,10 +317,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -266,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,6 +349,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -334,13 +411,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B99B357-FCB7-40AF-A92A-4AAE7ED94F15}" name="Tabelle1" displayName="Tabelle1" ref="A1:D76" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D76" xr:uid="{11EE0177-6D02-402F-B50F-6694169BEC01}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B99B357-FCB7-40AF-A92A-4AAE7ED94F15}" name="Tabelle1" displayName="Tabelle1" ref="A1:E76" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:E76" xr:uid="{11EE0177-6D02-402F-B50F-6694169BEC01}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{139C2D5B-421E-4F71-9ADF-08D3C9D3E273}" name="utterance" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7E086738-0CA2-4699-9855-6CC96A57D15B}" name="tp"/>
     <tableColumn id="3" xr3:uid="{6A45B40B-4D79-4900-8CE8-479F56B1ED04}" name="absatz"/>
     <tableColumn id="4" xr3:uid="{A7E18593-3B8B-4D95-AD92-977863935533}" name="info_need"/>
+    <tableColumn id="5" xr3:uid="{48B5BEA3-6500-BC43-9C14-2B3410110EDE}" name="Spalte1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,19 +709,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,8 +734,11 @@
       <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -667,8 +748,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,8 +762,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,8 +776,11 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -700,8 +790,11 @@
       <c r="C5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -711,8 +804,11 @@
       <c r="C6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -722,8 +818,11 @@
       <c r="C7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,8 +832,11 @@
       <c r="C8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -744,8 +846,14 @@
       <c r="C9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,8 +863,11 @@
       <c r="C10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -766,8 +877,11 @@
       <c r="C11">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,8 +891,11 @@
       <c r="C12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,8 +905,11 @@
       <c r="C13">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -799,8 +919,11 @@
       <c r="C14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -810,8 +933,11 @@
       <c r="C15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -821,8 +947,11 @@
       <c r="C16">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,8 +961,11 @@
       <c r="C17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,8 +975,11 @@
       <c r="C18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -854,8 +989,11 @@
       <c r="C19">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -865,8 +1003,11 @@
       <c r="C20">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -876,8 +1017,11 @@
       <c r="C21">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,8 +1031,11 @@
       <c r="C22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -898,8 +1045,11 @@
       <c r="C23">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -909,8 +1059,11 @@
       <c r="C24">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -920,8 +1073,11 @@
       <c r="C25">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -931,8 +1087,11 @@
       <c r="C26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -942,8 +1101,11 @@
       <c r="C27">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -953,8 +1115,11 @@
       <c r="C28">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -964,8 +1129,11 @@
       <c r="C29">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -975,8 +1143,11 @@
       <c r="C30">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -986,8 +1157,11 @@
       <c r="C31">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -997,8 +1171,11 @@
       <c r="C32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1008,8 +1185,11 @@
       <c r="C33">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1199,11 @@
       <c r="C34">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1030,8 +1213,11 @@
       <c r="C35">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1041,8 +1227,11 @@
       <c r="C36">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1052,8 +1241,11 @@
       <c r="C37">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1063,8 +1255,11 @@
       <c r="C38">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1074,8 +1269,11 @@
       <c r="C39">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1085,8 +1283,11 @@
       <c r="C40">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -1096,8 +1297,11 @@
       <c r="C41">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1107,8 +1311,11 @@
       <c r="C42">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1118,8 +1325,11 @@
       <c r="C43">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1129,8 +1339,11 @@
       <c r="C44">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -1140,8 +1353,11 @@
       <c r="C45">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1151,8 +1367,11 @@
       <c r="C46">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1162,8 +1381,11 @@
       <c r="C47">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1173,8 +1395,11 @@
       <c r="C48">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1184,8 +1409,11 @@
       <c r="C49">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1195,8 +1423,11 @@
       <c r="C50">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1206,8 +1437,11 @@
       <c r="C51">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1217,8 +1451,11 @@
       <c r="C52">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1228,8 +1465,11 @@
       <c r="C53">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -1239,8 +1479,11 @@
       <c r="C54">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1250,8 +1493,11 @@
       <c r="C55">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1261,8 +1507,11 @@
       <c r="C56">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -1272,8 +1521,11 @@
       <c r="C57">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -1283,8 +1535,11 @@
       <c r="C58">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -1294,8 +1549,11 @@
       <c r="C59">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
@@ -1305,8 +1563,11 @@
       <c r="C60">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
@@ -1316,8 +1577,11 @@
       <c r="C61">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -1327,8 +1591,11 @@
       <c r="C62">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -1338,8 +1605,11 @@
       <c r="C63">
         <v>117</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -1349,8 +1619,11 @@
       <c r="C64">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -1360,8 +1633,11 @@
       <c r="C65">
         <v>117</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
@@ -1371,8 +1647,11 @@
       <c r="C66">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -1382,8 +1661,11 @@
       <c r="C67">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -1393,8 +1675,11 @@
       <c r="C68">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -1404,8 +1689,11 @@
       <c r="C69">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -1415,8 +1703,11 @@
       <c r="C70">
         <v>123</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -1426,8 +1717,11 @@
       <c r="C71">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
@@ -1437,8 +1731,11 @@
       <c r="C72">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
@@ -1448,8 +1745,11 @@
       <c r="C73">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -1459,8 +1759,11 @@
       <c r="C74">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -1470,8 +1773,11 @@
       <c r="C75">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -1480,6 +1786,9 @@
       </c>
       <c r="C76">
         <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
